--- a/tmp/LegofiedImage.xlsx
+++ b/tmp/LegofiedImage.xlsx
@@ -413,275 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>6284586</t>
-        </is>
-      </c>
-      <c r="B1" t="n">
-        <v>1557</v>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>#582A12</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>ReddishBrown</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>6284596</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1627</v>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>#6C6E68</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>DarkStoneGrey</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6284589</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>294</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>#AA7D55</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>MediumNougat</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6322841</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>590</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>#958A73</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>SandYellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6284573</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1088</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>#E4CD9E</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>BrickYellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6284071</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>222</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>#A0A5A9</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>MediumStoneGrey</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6315196</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>559</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>#F6D7B3</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>LightNougat</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6284592</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>2286</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>#D9D9D9</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>WhiteGlow</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6284587</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>88</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>#E4ADC8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>LightPurple</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6322818</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>#B3D7D1</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Aqua</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6238890</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>1</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>#898788</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>SilverMetallic</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6322813</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2613</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>#352100</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>DarkBrown</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6284070</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>433</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>#05131D</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tmp/LegofiedImage.xlsx
+++ b/tmp/LegofiedImage.xlsx
@@ -413,14 +413,417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Color Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6284070</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>3411</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>#05131D</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6322813</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>330</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>#352100</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>DarkBrown</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6284586</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>224</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>#582A12</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ReddishBrown</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6238891</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>#AA7F2E</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>WarmGold</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6284577</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>1</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>#F2CD37</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>BrightYellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6284596</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>126</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>#6C6E68</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>DarkStoneGrey</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6322841</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>42</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>#958A73</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>SandYellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6284589</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>19</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>#AA7D55</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>MediumNougat</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6284071</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>27</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>#A0A5A9</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>MediumStoneGrey</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6284585</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>#720E0F</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>DarkRed</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6284573</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>#E4CD9E</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>BrickYellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6315196</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>#F6D7B3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>LightNougat</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6284574</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>#C91A09</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BrightRed</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6238890</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>17</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>#898788</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>SilverMetallic</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6322818</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>1</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>#B3D7D1</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Aqua</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6284587</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>#E4ADC8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LightPurple</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6284592</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>2</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>#D9D9D9</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>WhiteGlow</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6322816</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>#923978</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>BrightReddishViolet</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6322821</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>#C870A0</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BrightPurple</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tmp/LegofiedImage.xlsx
+++ b/tmp/LegofiedImage.xlsx
@@ -413,14 +413,417 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Part Number</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Quantity</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Color</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>Color Name</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>6284572</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>1216</v>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>#FFFFFF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>6322820</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>67</v>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>#E1D5ED</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Lavender</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>6284592</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>109</v>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>#D9D9D9</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>WhiteGlow</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>6322818</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>24</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>#B3D7D1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Aqua</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>6284596</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>136</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>#6C6E68</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>DarkStoneGrey</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6284071</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>73</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>#A0A5A9</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>MediumStoneGrey</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>6284586</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>334</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>#582A12</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ReddishBrown</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>6238890</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>25</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>#898788</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>SilverMetallic</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>6322841</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>#958A73</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>SandYellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>6284573</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>147</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>#E4CD9E</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>BrickYellow</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>6315196</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>51</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>#F6D7B3</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>LightNougat</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>6284589</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>61</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>#AA7D55</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>MediumNougat</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>6322821</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>27</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>#C870A0</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>BrightPurple</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>6322813</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>48</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>#352100</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>DarkBrown</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>6284070</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>714</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>#05131D</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Black</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>6284587</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>10</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>#E4ADC8</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>LightPurple</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>6238891</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>10</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>#AA7F2E</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>WarmGold</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>6284584</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>261</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>#0A3463</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>EarthBlue</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>6322816</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>27</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>#923978</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>BrightReddishViolet</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/tmp/LegofiedImage.xlsx
+++ b/tmp/LegofiedImage.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,380 +446,20 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>6284572</t>
+          <t>6238890</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216</v>
+        <v>3</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>#FFFFFF</t>
+          <t>#898788</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>White</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>6322820</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>67</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>#E1D5ED</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Lavender</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>6284592</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>109</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>#D9D9D9</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>WhiteGlow</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>6322818</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>24</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>#B3D7D1</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Aqua</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>6284596</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>136</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>#6C6E68</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>DarkStoneGrey</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>6284071</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>73</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>#A0A5A9</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>MediumStoneGrey</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>6284586</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>334</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>#582A12</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>ReddishBrown</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>6238890</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>25</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>#898788</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
           <t>SilverMetallic</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6322841</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>#958A73</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>SandYellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>6284573</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>147</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>#E4CD9E</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>BrickYellow</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>6315196</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>51</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>#F6D7B3</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>LightNougat</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>6284589</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>61</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>#AA7D55</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>MediumNougat</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>6322821</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>27</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>#C870A0</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>BrightPurple</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>6322813</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>48</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>#352100</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>DarkBrown</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>6284070</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>714</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>#05131D</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Black</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>6284587</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>#E4ADC8</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>LightPurple</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>6238891</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>10</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>#AA7F2E</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>WarmGold</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>6284584</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>261</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>#0A3463</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>EarthBlue</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>6322816</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>27</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>#923978</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>BrightReddishViolet</t>
         </is>
       </c>
     </row>

--- a/tmp/LegofiedImage.xlsx
+++ b/tmp/LegofiedImage.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
